--- a/www/templates/files_manifest.xlsx
+++ b/www/templates/files_manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC3B9B-B642-DC42-9037-29C61782975C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34752B9-52F0-024D-875E-350C0C887CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="460" windowWidth="24120" windowHeight="17540" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
+    <workbookView xWindow="4680" yWindow="5920" windowWidth="24120" windowHeight="12080" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>

--- a/www/templates/files_manifest.xlsx
+++ b/www/templates/files_manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34752B9-52F0-024D-875E-350C0C887CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37966B41-4FB6-3E4A-96FB-E35873D2C426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="5920" windowWidth="24120" windowHeight="12080" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
+    <workbookView xWindow="8820" yWindow="460" windowWidth="19980" windowHeight="17540" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$490</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$491</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="531">
   <si>
     <t>datasetName</t>
   </si>
@@ -262,12 +262,6 @@
     <t>Immunohistochemistry Staining Method</t>
   </si>
   <si>
-    <t>In Situ Hybridization</t>
-  </si>
-  <si>
-    <t>In Vitro Selection</t>
-  </si>
-  <si>
     <t>in vivo Bioluminescence</t>
   </si>
   <si>
@@ -430,9 +424,6 @@
     <t>RT-PCR</t>
   </si>
   <si>
-    <t>Scanning angle interference microscopy</t>
-  </si>
-  <si>
     <t>scCGIseq</t>
   </si>
   <si>
@@ -1568,6 +1559,78 @@
   </si>
   <si>
     <t>Hepatocellular Carcinoma</t>
+  </si>
+  <si>
+    <t>Agarose-Embedded Gradient Assay</t>
+  </si>
+  <si>
+    <t>Cell Interaction Assay</t>
+  </si>
+  <si>
+    <t>ChIP-PCR</t>
+  </si>
+  <si>
+    <t>Deep Mutational Scanning</t>
+  </si>
+  <si>
+    <t>Dynamic Light Scattering</t>
+  </si>
+  <si>
+    <t>Isolated Vessel Assay</t>
+  </si>
+  <si>
+    <t>Macrophage Polarization Assay</t>
+  </si>
+  <si>
+    <t>Mechanical Testing</t>
+  </si>
+  <si>
+    <t>Microfabricated Sandwiching Assay</t>
+  </si>
+  <si>
+    <t>Nuclear Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>Optical Tweezers</t>
+  </si>
+  <si>
+    <t>Proximity Ligation Assay</t>
+  </si>
+  <si>
+    <t>Second-Harmonic Imaging Microscopy</t>
+  </si>
+  <si>
+    <t>Transwell Assay</t>
+  </si>
+  <si>
+    <t>Fallopian Tubes</t>
+  </si>
+  <si>
+    <t>Lung Carcinoma</t>
+  </si>
+  <si>
+    <t>Serous Tubal Intraepithelial Carcinoma</t>
+  </si>
+  <si>
+    <t>Colon Carcinoma</t>
+  </si>
+  <si>
+    <t>Esophageal Carcinoma</t>
+  </si>
+  <si>
+    <t>Ovarian Serous Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Ductal Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>In vitro Selection</t>
+  </si>
+  <si>
+    <t>In situ Hybridization</t>
+  </si>
+  <si>
+    <t>Scanning Angle Interference Microscopy</t>
   </si>
 </sst>
 </file>
@@ -1976,16 +2039,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2017,47 +2080,47 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{AC77CD3A-0497-BE44-AE48-429782C4811E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{009DD172-6A79-C741-BC0B-37D3FCCA3925}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$172:$B$212</xm:f>
+            <xm:f>standard_terms!$B$2:$B$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{635AE965-C4EF-7F4A-B0BC-A0F17275AECA}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$205:$B$231</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{75E5ED83-6C49-0E49-A835-6A50BD948069}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$164:$B$204</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{3EDBE420-413B-BF43-936F-54CF0DBDDEF7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{257E5A8E-1682-B641-BB2B-5E269D60D1E0}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$213:$B$224</xm:f>
+            <xm:f>standard_terms!$B$237:$B$248</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{BE31D8E2-3C9D-5741-98C8-AE0259017759}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{34A68B7B-A902-2E47-899A-156087CE391B}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$225:$B$229</xm:f>
+            <xm:f>standard_terms!$B$232:$B$236</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{99E7EA5E-7F24-3D44-9724-F7A89D8A1D81}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{D7EB02DC-609B-174B-B4D1-7C0F47C49F71}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$230:$B$356</xm:f>
+            <xm:f>standard_terms!$B$384:$B$519</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{2C7CD6F0-D0A5-9445-81A7-26B6AACCE36F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{F77E2D30-23E6-DD4A-B078-EF1B1334A3B9}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$357:$B$490</xm:f>
+            <xm:f>standard_terms!$B$249:$B$383</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{DA98439B-BB5C-3247-8860-68771FE16F96}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$144</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{A8A92863-7E38-F34D-91E4-B91E1D225E4E}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$145:$B$171</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2086,7 +2149,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -2100,7 +2163,7 @@
     </row>
     <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2110,27 +2173,27 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -2214,9 +2277,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15D8B27-E64A-854A-A402-5BD6913012A0}">
-  <dimension ref="A1:C490"/>
+  <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2233,7 +2296,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2242,7 +2305,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2250,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2261,10 +2324,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2272,21 +2335,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>507</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2294,10 +2357,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2305,10 +2368,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2316,10 +2379,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2327,10 +2390,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2338,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2349,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -2360,10 +2423,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -2371,10 +2434,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -2382,21 +2445,21 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>508</v>
       </c>
       <c r="C16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -2404,10 +2467,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -2415,21 +2478,21 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>509</v>
       </c>
       <c r="C19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -2437,10 +2500,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2448,10 +2511,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -2459,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2470,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2481,10 +2544,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2492,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2503,21 +2566,21 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>510</v>
       </c>
       <c r="C27" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2525,10 +2588,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2536,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2547,21 +2610,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>511</v>
       </c>
       <c r="C31" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -2569,10 +2632,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -2580,10 +2643,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2591,10 +2654,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -2602,10 +2665,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -2613,10 +2676,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2624,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2635,10 +2698,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2646,10 +2709,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2657,10 +2720,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2668,10 +2731,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2679,21 +2742,21 @@
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>63</v>
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2701,10 +2764,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2712,10 +2775,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -2723,10 +2786,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2734,10 +2797,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2745,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2756,10 +2819,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -2767,10 +2830,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -2778,10 +2841,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2789,10 +2852,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2800,10 +2863,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2811,10 +2874,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2822,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2833,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2844,10 +2907,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2855,10 +2918,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2866,10 +2929,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -2877,10 +2940,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2888,10 +2951,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>81</v>
+        <v>529</v>
       </c>
       <c r="C61" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2899,10 +2962,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>82</v>
+        <v>528</v>
       </c>
       <c r="C62" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2910,10 +2973,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2921,10 +2984,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2932,21 +2995,21 @@
         <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>86</v>
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>512</v>
       </c>
       <c r="C66" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2954,10 +3017,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2965,10 +3028,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2976,10 +3039,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2987,10 +3050,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2998,21 +3061,21 @@
         <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>92</v>
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>513</v>
       </c>
       <c r="C72" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -3020,21 +3083,21 @@
         <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>94</v>
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -3042,10 +3105,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -3053,21 +3116,21 @@
         <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>97</v>
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -3075,10 +3138,10 @@
         <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -3086,10 +3149,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -3097,21 +3160,21 @@
         <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>101</v>
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>514</v>
       </c>
       <c r="C81" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -3119,10 +3182,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -3130,10 +3193,10 @@
         <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -3141,32 +3204,32 @@
         <v>2</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>105</v>
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>515</v>
       </c>
       <c r="C85" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>106</v>
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>515</v>
       </c>
       <c r="C86" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -3174,10 +3237,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -3185,10 +3248,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -3196,10 +3259,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -3207,10 +3270,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -3218,10 +3281,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -3229,10 +3292,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -3240,10 +3303,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -3251,10 +3314,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -3262,10 +3325,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -3273,10 +3336,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -3284,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -3295,10 +3358,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -3306,10 +3369,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -3317,10 +3380,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -3328,10 +3391,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -3339,32 +3402,32 @@
         <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>123</v>
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>516</v>
       </c>
       <c r="C103" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>124</v>
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>517</v>
       </c>
       <c r="C104" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -3372,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -3383,10 +3446,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -3394,10 +3457,10 @@
         <v>2</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -3405,10 +3468,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -3416,10 +3479,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3427,10 +3490,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -3438,10 +3501,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -3449,10 +3512,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -3460,10 +3523,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -3471,10 +3534,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -3482,10 +3545,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -3493,21 +3556,21 @@
         <v>2</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>137</v>
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>518</v>
       </c>
       <c r="C117" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -3515,10 +3578,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -3526,10 +3589,10 @@
         <v>2</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -3537,10 +3600,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -3548,21 +3611,21 @@
         <v>2</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>142</v>
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -3570,10 +3633,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -3581,10 +3644,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -3592,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -3603,10 +3666,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -3614,10 +3677,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>147</v>
+        <v>530</v>
       </c>
       <c r="C127" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -3625,21 +3688,21 @@
         <v>2</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>149</v>
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>519</v>
       </c>
       <c r="C129" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -3647,10 +3710,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -3658,10 +3721,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -3669,10 +3732,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -3680,10 +3743,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -3691,10 +3754,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -3702,10 +3765,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -3713,10 +3776,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -3724,10 +3787,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -3735,10 +3798,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -3746,10 +3809,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -3757,10 +3820,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -3768,10 +3831,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -3779,10 +3842,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -3790,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -3801,312 +3864,315 @@
         <v>2</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" t="s">
-        <v>190</v>
+        <v>2</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B148" t="s">
-        <v>165</v>
+        <v>2</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" t="s">
-        <v>180</v>
+        <v>2</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" t="s">
-        <v>184</v>
+        <v>2</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B151" t="s">
-        <v>185</v>
+        <v>2</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" t="s">
-        <v>188</v>
+        <v>2</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A153" s="3" t="s">
-        <v>3</v>
+      <c r="A153" t="s">
+        <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>520</v>
       </c>
       <c r="C153" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B154" t="s">
-        <v>178</v>
+        <v>2</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" t="s">
-        <v>167</v>
+        <v>2</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B156" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B157" t="s">
-        <v>168</v>
+        <v>2</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B158" t="s">
-        <v>169</v>
+        <v>2</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" t="s">
-        <v>170</v>
+        <v>2</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B160" t="s">
-        <v>171</v>
+        <v>2</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B161" t="s">
-        <v>172</v>
+        <v>2</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B162" t="s">
-        <v>187</v>
+        <v>2</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B163" t="s">
-        <v>173</v>
+        <v>2</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B164" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C166" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C167" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C168" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C169" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C171" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B172" t="s">
+        <v>195</v>
+      </c>
       <c r="C172" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -4114,10 +4180,10 @@
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C173" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -4125,10 +4191,10 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -4136,10 +4202,10 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C175" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -4147,10 +4213,10 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C176" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -4158,10 +4224,10 @@
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C177" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -4169,10 +4235,10 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C178" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -4180,10 +4246,10 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C179" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -4191,10 +4257,10 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C180" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -4202,10 +4268,10 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C181" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -4213,10 +4279,10 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C182" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -4224,10 +4290,10 @@
         <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C183" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -4235,10 +4301,10 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C184" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -4246,10 +4312,10 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C185" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -4257,10 +4323,10 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C186" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -4268,10 +4334,10 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C187" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -4279,10 +4345,10 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C188" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -4290,10 +4356,10 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C189" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -4301,10 +4367,10 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C190" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -4312,10 +4378,10 @@
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C191" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -4323,10 +4389,10 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -4334,10 +4400,10 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C193" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -4345,10 +4411,10 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C194" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -4356,10 +4422,10 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C195" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -4367,10 +4433,10 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C196" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -4378,10 +4444,10 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -4389,10 +4455,10 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -4400,10 +4466,10 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -4411,10 +4477,10 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -4422,10 +4488,10 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -4433,10 +4499,10 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C202" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -4444,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C203" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -4455,1683 +4521,1682 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C204" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C206" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C207" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="C208" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C209" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="C210" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C211" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="C212" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B213" t="s">
+        <v>163</v>
+      </c>
       <c r="C213" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>175</v>
       </c>
       <c r="C214" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>155</v>
+        <v>3</v>
+      </c>
+      <c r="B215" t="s">
+        <v>164</v>
       </c>
       <c r="C215" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>232</v>
+        <v>3</v>
+      </c>
+      <c r="B216" t="s">
+        <v>183</v>
       </c>
       <c r="C216" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>233</v>
+        <v>3</v>
+      </c>
+      <c r="B217" t="s">
+        <v>165</v>
       </c>
       <c r="C217" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>234</v>
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>166</v>
       </c>
       <c r="C218" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>235</v>
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>167</v>
       </c>
       <c r="C219" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>236</v>
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>168</v>
       </c>
       <c r="C220" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>237</v>
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>169</v>
       </c>
       <c r="C221" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>238</v>
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>184</v>
       </c>
       <c r="C222" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>239</v>
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
+        <v>170</v>
       </c>
       <c r="C223" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>240</v>
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>172</v>
       </c>
       <c r="C224" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B225" t="s">
+        <v>176</v>
       </c>
       <c r="C225" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="C226" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="C227" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C228" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C229" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B230" t="s">
+        <v>174</v>
+      </c>
       <c r="C230" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
-        <v>7</v>
+      <c r="A231" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="C231" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232" t="s">
-        <v>243</v>
+      <c r="A232" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
-        <v>7</v>
+      <c r="A233" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C233" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
-        <v>7</v>
+      <c r="A234" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C234" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
-        <v>7</v>
+      <c r="A235" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C235" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
-        <v>7</v>
+      <c r="A236" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="C236" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" t="s">
-        <v>248</v>
-      </c>
+      <c r="A237" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="3"/>
       <c r="C237" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
-        <v>7</v>
-      </c>
-      <c r="B238" t="s">
-        <v>249</v>
+      <c r="A238" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C238" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" t="s">
-        <v>250</v>
+      <c r="A239" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="C239" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
-        <v>7</v>
-      </c>
-      <c r="B240" t="s">
-        <v>251</v>
+      <c r="A240" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="C240" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
-        <v>7</v>
-      </c>
-      <c r="B241" t="s">
-        <v>252</v>
+      <c r="A241" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C241" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>7</v>
-      </c>
-      <c r="B242" t="s">
-        <v>253</v>
+      <c r="A242" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C242" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
-        <v>7</v>
-      </c>
-      <c r="B243" t="s">
-        <v>254</v>
+      <c r="A243" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C243" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
-        <v>7</v>
-      </c>
-      <c r="B244" t="s">
-        <v>255</v>
+      <c r="A244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C244" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
-        <v>7</v>
-      </c>
-      <c r="B245" t="s">
-        <v>256</v>
+      <c r="A245" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C245" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
-        <v>7</v>
-      </c>
-      <c r="B246" t="s">
-        <v>257</v>
+      <c r="A246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C246" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
-        <v>7</v>
-      </c>
-      <c r="B247" t="s">
-        <v>258</v>
+      <c r="A247" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C247" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
-        <v>7</v>
-      </c>
-      <c r="B248" t="s">
-        <v>259</v>
+      <c r="A248" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C248" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>7</v>
-      </c>
-      <c r="B249" t="s">
-        <v>508</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="C250" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="C251" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="C252" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="C253" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="C254" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="C255" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s">
-        <v>266</v>
+        <v>367</v>
       </c>
       <c r="C256" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="C257" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="C258" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="C259" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="C260" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B261" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="C261" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B262" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="C262" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B263" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="C263" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B264" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="C264" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B265" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="C265" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B266" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c r="C266" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="C267" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B268" t="s">
-        <v>278</v>
+        <v>379</v>
       </c>
       <c r="C268" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="C269" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B270" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="C270" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B271" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="C271" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B272" t="s">
-        <v>282</v>
+        <v>383</v>
       </c>
       <c r="C272" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B273" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="C273" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>506</v>
+        <v>385</v>
       </c>
       <c r="C274" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B275" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="C275" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="C276" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="C277" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="C278" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="C279" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B280" t="s">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="C280" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="C281" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="C282" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="C283" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="C284" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="C285" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="C286" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>509</v>
+        <v>398</v>
       </c>
       <c r="C287" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="C288" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="C289" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="C290" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>521</v>
       </c>
       <c r="C291" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B292" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="C292" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="C293" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>507</v>
+        <v>404</v>
       </c>
       <c r="C294" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B295" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B296" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="C296" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>304</v>
+        <v>407</v>
       </c>
       <c r="C297" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B298" t="s">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="C298" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B299" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="C299" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="C300" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B301" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="C301" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B302" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="C302" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B303" t="s">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="C303" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B304" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="C304" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="C305" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="C306" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B307" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="C307" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B308" t="s">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="C308" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B309" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="C309" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B310" t="s">
-        <v>317</v>
+        <v>420</v>
       </c>
       <c r="C310" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B311" t="s">
-        <v>318</v>
+        <v>421</v>
       </c>
       <c r="C311" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>319</v>
+        <v>422</v>
       </c>
       <c r="C312" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C313" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="C314" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="C315" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="C316" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="C317" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="C318" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="C319" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B320" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="C320" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B321" t="s">
-        <v>328</v>
+        <v>431</v>
       </c>
       <c r="C321" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B322" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="C322" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B323" t="s">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="C323" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B324" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="C324" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B325" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="C325" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B326" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="C326" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B327" t="s">
-        <v>334</v>
+        <v>437</v>
       </c>
       <c r="C327" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B328" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="C328" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B329" t="s">
-        <v>336</v>
+        <v>439</v>
       </c>
       <c r="C329" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B330" t="s">
-        <v>337</v>
+        <v>440</v>
       </c>
       <c r="C330" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B331" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="C331" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B332" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="C332" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="C333" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>341</v>
+        <v>444</v>
       </c>
       <c r="C334" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>342</v>
+        <v>445</v>
       </c>
       <c r="C335" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="C336" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="C337" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="C338" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="C339" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>347</v>
+        <v>450</v>
       </c>
       <c r="C340" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>348</v>
+        <v>451</v>
       </c>
       <c r="C341" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>349</v>
+        <v>452</v>
       </c>
       <c r="C342" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B343" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="C343" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B344" t="s">
-        <v>351</v>
+        <v>454</v>
       </c>
       <c r="C344" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="C345" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>353</v>
+        <v>456</v>
       </c>
       <c r="C346" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>354</v>
+        <v>457</v>
       </c>
       <c r="C347" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="C348" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="C349" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>357</v>
+        <v>460</v>
       </c>
       <c r="C350" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="C351" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="C352" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>360</v>
+        <v>463</v>
       </c>
       <c r="C353" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B354" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="C354" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B355" t="s">
-        <v>362</v>
+        <v>465</v>
       </c>
       <c r="C355" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="C356" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>8</v>
       </c>
+      <c r="B357" t="s">
+        <v>467</v>
+      </c>
       <c r="C357" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
@@ -6139,10 +6204,10 @@
         <v>8</v>
       </c>
       <c r="B358" t="s">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="C358" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
@@ -6150,10 +6215,10 @@
         <v>8</v>
       </c>
       <c r="B359" t="s">
-        <v>365</v>
+        <v>469</v>
       </c>
       <c r="C359" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
@@ -6161,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="C360" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
@@ -6172,10 +6237,10 @@
         <v>8</v>
       </c>
       <c r="B361" t="s">
-        <v>367</v>
+        <v>471</v>
       </c>
       <c r="C361" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
@@ -6183,10 +6248,10 @@
         <v>8</v>
       </c>
       <c r="B362" t="s">
-        <v>368</v>
+        <v>472</v>
       </c>
       <c r="C362" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
@@ -6194,10 +6259,10 @@
         <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>369</v>
+        <v>473</v>
       </c>
       <c r="C363" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
@@ -6205,10 +6270,10 @@
         <v>8</v>
       </c>
       <c r="B364" t="s">
-        <v>370</v>
+        <v>474</v>
       </c>
       <c r="C364" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
@@ -6216,10 +6281,10 @@
         <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>371</v>
+        <v>475</v>
       </c>
       <c r="C365" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
@@ -6227,10 +6292,10 @@
         <v>8</v>
       </c>
       <c r="B366" t="s">
-        <v>372</v>
+        <v>476</v>
       </c>
       <c r="C366" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
@@ -6238,10 +6303,10 @@
         <v>8</v>
       </c>
       <c r="B367" t="s">
-        <v>373</v>
+        <v>477</v>
       </c>
       <c r="C367" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
@@ -6249,10 +6314,10 @@
         <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="C368" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -6260,10 +6325,10 @@
         <v>8</v>
       </c>
       <c r="B369" t="s">
-        <v>375</v>
+        <v>479</v>
       </c>
       <c r="C369" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
@@ -6271,10 +6336,10 @@
         <v>8</v>
       </c>
       <c r="B370" t="s">
-        <v>376</v>
+        <v>480</v>
       </c>
       <c r="C370" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
@@ -6282,10 +6347,10 @@
         <v>8</v>
       </c>
       <c r="B371" t="s">
-        <v>377</v>
+        <v>481</v>
       </c>
       <c r="C371" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
@@ -6293,10 +6358,10 @@
         <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>378</v>
+        <v>482</v>
       </c>
       <c r="C372" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
@@ -6304,10 +6369,10 @@
         <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>379</v>
+        <v>483</v>
       </c>
       <c r="C373" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
@@ -6315,10 +6380,10 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>380</v>
+        <v>484</v>
       </c>
       <c r="C374" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
@@ -6326,10 +6391,10 @@
         <v>8</v>
       </c>
       <c r="B375" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
       <c r="C375" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
@@ -6337,10 +6402,10 @@
         <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>382</v>
+        <v>152</v>
       </c>
       <c r="C376" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -6348,10 +6413,10 @@
         <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="C377" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -6359,10 +6424,10 @@
         <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
       <c r="C378" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
@@ -6370,10 +6435,10 @@
         <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
       <c r="C379" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
@@ -6381,10 +6446,10 @@
         <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
       <c r="C380" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
@@ -6392,10 +6457,10 @@
         <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="C381" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -6403,10 +6468,10 @@
         <v>8</v>
       </c>
       <c r="B382" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
       <c r="C382" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
@@ -6414,1194 +6479,1512 @@
         <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>389</v>
+        <v>492</v>
       </c>
       <c r="C383" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A384" t="s">
-        <v>8</v>
-      </c>
-      <c r="B384" t="s">
-        <v>390</v>
-      </c>
+      <c r="A384" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384" s="3"/>
       <c r="C384" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B385" t="s">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="C385" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>392</v>
+        <v>240</v>
       </c>
       <c r="C386" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B387" t="s">
-        <v>393</v>
+        <v>241</v>
       </c>
       <c r="C387" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B388" t="s">
-        <v>394</v>
+        <v>242</v>
       </c>
       <c r="C388" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B389" t="s">
-        <v>395</v>
+        <v>243</v>
       </c>
       <c r="C389" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B390" t="s">
-        <v>396</v>
+        <v>244</v>
       </c>
       <c r="C390" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B391" t="s">
-        <v>397</v>
+        <v>245</v>
       </c>
       <c r="C391" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B392" t="s">
-        <v>398</v>
+        <v>246</v>
       </c>
       <c r="C392" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B393" t="s">
-        <v>399</v>
+        <v>247</v>
       </c>
       <c r="C393" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B394" t="s">
-        <v>400</v>
+        <v>248</v>
       </c>
       <c r="C394" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>401</v>
+        <v>249</v>
       </c>
       <c r="C395" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B396" t="s">
-        <v>402</v>
+        <v>250</v>
       </c>
       <c r="C396" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B397" t="s">
-        <v>403</v>
+        <v>251</v>
       </c>
       <c r="C397" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B398" t="s">
-        <v>404</v>
+        <v>252</v>
       </c>
       <c r="C398" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B399" t="s">
-        <v>405</v>
+        <v>253</v>
       </c>
       <c r="C399" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B400" t="s">
-        <v>406</v>
+        <v>254</v>
       </c>
       <c r="C400" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B401" t="s">
-        <v>407</v>
+        <v>255</v>
       </c>
       <c r="C401" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B402" t="s">
-        <v>408</v>
+        <v>256</v>
       </c>
       <c r="C402" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B403" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="C403" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B404" t="s">
-        <v>410</v>
+        <v>505</v>
       </c>
       <c r="C404" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B405" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
       <c r="C405" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B406" t="s">
-        <v>412</v>
+        <v>258</v>
       </c>
       <c r="C406" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B407" t="s">
-        <v>413</v>
+        <v>259</v>
       </c>
       <c r="C407" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B408" t="s">
-        <v>414</v>
+        <v>260</v>
       </c>
       <c r="C408" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B409" t="s">
-        <v>415</v>
+        <v>261</v>
       </c>
       <c r="C409" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B410" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="C410" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B411" t="s">
-        <v>417</v>
+        <v>263</v>
       </c>
       <c r="C411" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B412" t="s">
-        <v>418</v>
+        <v>264</v>
       </c>
       <c r="C412" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B413" t="s">
-        <v>419</v>
+        <v>265</v>
       </c>
       <c r="C413" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B414" t="s">
-        <v>420</v>
+        <v>266</v>
       </c>
       <c r="C414" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B415" t="s">
-        <v>421</v>
+        <v>267</v>
       </c>
       <c r="C415" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B416" t="s">
-        <v>422</v>
+        <v>268</v>
       </c>
       <c r="C416" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B417" t="s">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="C417" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B418" t="s">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="C418" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B419" t="s">
-        <v>425</v>
+        <v>271</v>
       </c>
       <c r="C419" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B420" t="s">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="C420" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B421" t="s">
-        <v>427</v>
+        <v>273</v>
       </c>
       <c r="C421" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B422" t="s">
-        <v>428</v>
+        <v>274</v>
       </c>
       <c r="C422" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B423" t="s">
-        <v>429</v>
+        <v>275</v>
       </c>
       <c r="C423" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B424" t="s">
-        <v>430</v>
+        <v>276</v>
       </c>
       <c r="C424" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B425" t="s">
-        <v>431</v>
+        <v>277</v>
       </c>
       <c r="C425" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B426" t="s">
-        <v>432</v>
+        <v>278</v>
       </c>
       <c r="C426" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B427" t="s">
-        <v>433</v>
+        <v>524</v>
       </c>
       <c r="C427" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B428" t="s">
-        <v>434</v>
+        <v>279</v>
       </c>
       <c r="C428" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B429" t="s">
-        <v>435</v>
+        <v>280</v>
       </c>
       <c r="C429" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B430" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="C430" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B431" t="s">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="C431" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B432" t="s">
-        <v>438</v>
+        <v>282</v>
       </c>
       <c r="C432" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B433" t="s">
-        <v>439</v>
+        <v>283</v>
       </c>
       <c r="C433" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B434" t="s">
-        <v>440</v>
+        <v>284</v>
       </c>
       <c r="C434" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B435" t="s">
-        <v>441</v>
+        <v>285</v>
       </c>
       <c r="C435" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B436" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="C436" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B437" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="C437" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B438" t="s">
-        <v>444</v>
+        <v>287</v>
       </c>
       <c r="C438" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B439" t="s">
-        <v>445</v>
+        <v>288</v>
       </c>
       <c r="C439" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B440" t="s">
-        <v>446</v>
+        <v>289</v>
       </c>
       <c r="C440" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B441" t="s">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="C441" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B442" t="s">
-        <v>448</v>
+        <v>291</v>
       </c>
       <c r="C442" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B443" t="s">
-        <v>449</v>
+        <v>292</v>
       </c>
       <c r="C443" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B444" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="C444" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B445" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="C445" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B446" t="s">
-        <v>452</v>
+        <v>293</v>
       </c>
       <c r="C446" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B447" t="s">
-        <v>453</v>
+        <v>294</v>
       </c>
       <c r="C447" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B448" t="s">
-        <v>454</v>
+        <v>295</v>
       </c>
       <c r="C448" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B449" t="s">
-        <v>455</v>
+        <v>296</v>
       </c>
       <c r="C449" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B450" t="s">
-        <v>456</v>
+        <v>297</v>
       </c>
       <c r="C450" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B451" t="s">
-        <v>457</v>
+        <v>298</v>
       </c>
       <c r="C451" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B452" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="C452" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B453" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="C453" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B454" t="s">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="C454" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B455" t="s">
-        <v>461</v>
+        <v>301</v>
       </c>
       <c r="C455" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B456" t="s">
-        <v>462</v>
+        <v>302</v>
       </c>
       <c r="C456" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B457" t="s">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="C457" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B458" t="s">
-        <v>464</v>
+        <v>304</v>
       </c>
       <c r="C458" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B459" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="C459" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B460" t="s">
-        <v>466</v>
+        <v>305</v>
       </c>
       <c r="C460" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B461" t="s">
-        <v>467</v>
+        <v>306</v>
       </c>
       <c r="C461" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B462" t="s">
-        <v>468</v>
+        <v>307</v>
       </c>
       <c r="C462" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B463" t="s">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="C463" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B464" t="s">
-        <v>470</v>
+        <v>309</v>
       </c>
       <c r="C464" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B465" t="s">
-        <v>471</v>
+        <v>310</v>
       </c>
       <c r="C465" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B466" t="s">
-        <v>472</v>
+        <v>311</v>
       </c>
       <c r="C466" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B467" t="s">
-        <v>473</v>
+        <v>312</v>
       </c>
       <c r="C467" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B468" t="s">
-        <v>474</v>
+        <v>313</v>
       </c>
       <c r="C468" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B469" t="s">
-        <v>475</v>
+        <v>314</v>
       </c>
       <c r="C469" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B470" t="s">
-        <v>476</v>
+        <v>315</v>
       </c>
       <c r="C470" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B471" t="s">
-        <v>477</v>
+        <v>316</v>
       </c>
       <c r="C471" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B472" t="s">
-        <v>478</v>
+        <v>317</v>
       </c>
       <c r="C472" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B473" t="s">
-        <v>479</v>
+        <v>318</v>
       </c>
       <c r="C473" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B474" t="s">
-        <v>480</v>
+        <v>319</v>
       </c>
       <c r="C474" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B475" t="s">
-        <v>481</v>
+        <v>320</v>
       </c>
       <c r="C475" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B476" t="s">
-        <v>482</v>
+        <v>321</v>
       </c>
       <c r="C476" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B477" t="s">
-        <v>483</v>
+        <v>322</v>
       </c>
       <c r="C477" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B478" t="s">
-        <v>484</v>
+        <v>323</v>
       </c>
       <c r="C478" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B479" t="s">
-        <v>485</v>
+        <v>324</v>
       </c>
       <c r="C479" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B480" t="s">
-        <v>486</v>
+        <v>325</v>
       </c>
       <c r="C480" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B481" t="s">
-        <v>487</v>
+        <v>326</v>
       </c>
       <c r="C481" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B482" t="s">
-        <v>488</v>
+        <v>327</v>
       </c>
       <c r="C482" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B483" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="C483" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B484" t="s">
-        <v>489</v>
+        <v>329</v>
       </c>
       <c r="C484" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B485" t="s">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="C485" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B486" t="s">
-        <v>491</v>
+        <v>331</v>
       </c>
       <c r="C486" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B487" t="s">
-        <v>492</v>
+        <v>332</v>
       </c>
       <c r="C487" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B488" t="s">
-        <v>493</v>
+        <v>333</v>
       </c>
       <c r="C488" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B489" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="C489" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B490" t="s">
-        <v>495</v>
+        <v>334</v>
       </c>
       <c r="C490" t="s">
-        <v>505</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491" t="s">
+        <v>335</v>
+      </c>
+      <c r="C491" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A492" t="s">
+        <v>7</v>
+      </c>
+      <c r="B492" t="s">
+        <v>336</v>
+      </c>
+      <c r="C492" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A493" t="s">
+        <v>7</v>
+      </c>
+      <c r="B493" t="s">
+        <v>527</v>
+      </c>
+      <c r="C493" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A494" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494" t="s">
+        <v>337</v>
+      </c>
+      <c r="C494" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A495" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495" t="s">
+        <v>338</v>
+      </c>
+      <c r="C495" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A496" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496" t="s">
+        <v>339</v>
+      </c>
+      <c r="C496" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A497" t="s">
+        <v>7</v>
+      </c>
+      <c r="B497" t="s">
+        <v>340</v>
+      </c>
+      <c r="C497" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A498" t="s">
+        <v>7</v>
+      </c>
+      <c r="B498" t="s">
+        <v>341</v>
+      </c>
+      <c r="C498" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A499" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499" t="s">
+        <v>342</v>
+      </c>
+      <c r="C499" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" t="s">
+        <v>343</v>
+      </c>
+      <c r="C500" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B501" t="s">
+        <v>344</v>
+      </c>
+      <c r="C501" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B502" t="s">
+        <v>345</v>
+      </c>
+      <c r="C502" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A503" t="s">
+        <v>7</v>
+      </c>
+      <c r="B503" t="s">
+        <v>346</v>
+      </c>
+      <c r="C503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A504" t="s">
+        <v>7</v>
+      </c>
+      <c r="B504" t="s">
+        <v>347</v>
+      </c>
+      <c r="C504" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A505" t="s">
+        <v>7</v>
+      </c>
+      <c r="B505" t="s">
+        <v>523</v>
+      </c>
+      <c r="C505" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A506" t="s">
+        <v>7</v>
+      </c>
+      <c r="B506" t="s">
+        <v>523</v>
+      </c>
+      <c r="C506" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A507" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" t="s">
+        <v>348</v>
+      </c>
+      <c r="C507" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A508" t="s">
+        <v>7</v>
+      </c>
+      <c r="B508" t="s">
+        <v>349</v>
+      </c>
+      <c r="C508" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A509" t="s">
+        <v>7</v>
+      </c>
+      <c r="B509" t="s">
+        <v>350</v>
+      </c>
+      <c r="C509" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A510" t="s">
+        <v>7</v>
+      </c>
+      <c r="B510" t="s">
+        <v>351</v>
+      </c>
+      <c r="C510" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B511" t="s">
+        <v>352</v>
+      </c>
+      <c r="C511" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B512" t="s">
+        <v>353</v>
+      </c>
+      <c r="C512" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A513" t="s">
+        <v>7</v>
+      </c>
+      <c r="B513" t="s">
+        <v>354</v>
+      </c>
+      <c r="C513" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A514" t="s">
+        <v>7</v>
+      </c>
+      <c r="B514" t="s">
+        <v>355</v>
+      </c>
+      <c r="C514" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A515" t="s">
+        <v>7</v>
+      </c>
+      <c r="B515" t="s">
+        <v>356</v>
+      </c>
+      <c r="C515" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A516" t="s">
+        <v>7</v>
+      </c>
+      <c r="B516" t="s">
+        <v>357</v>
+      </c>
+      <c r="C516" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A517" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517" t="s">
+        <v>358</v>
+      </c>
+      <c r="C517" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A518" t="s">
+        <v>7</v>
+      </c>
+      <c r="B518" t="s">
+        <v>359</v>
+      </c>
+      <c r="C518" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A519" t="s">
+        <v>7</v>
+      </c>
+      <c r="B519" t="s">
+        <v>360</v>
+      </c>
+      <c r="C519" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:B490" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A146:B171">
-    <sortCondition ref="B146:B171"/>
+  <autoFilter ref="A1:B491" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C519">
+    <sortCondition ref="A4:A519"/>
+    <sortCondition ref="B4:B519"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/www/templates/files_manifest.xlsx
+++ b/www/templates/files_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37966B41-4FB6-3E4A-96FB-E35873D2C426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3275F5-6D99-5446-8022-2AF1B1F02F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="460" windowWidth="19980" windowHeight="17540" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="26080" windowHeight="17500" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$491</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$B$522</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="587">
   <si>
     <t>datasetName</t>
   </si>
@@ -1631,6 +1631,174 @@
   </si>
   <si>
     <t>Scanning Angle Interference Microscopy</t>
+  </si>
+  <si>
+    <t>Alkaline Comet Assay</t>
+  </si>
+  <si>
+    <t>Archer FusionPlex Assay</t>
+  </si>
+  <si>
+    <t>Atomic Absorption Spectroscopy</t>
+  </si>
+  <si>
+    <t>ATP Bioluminescence Assay</t>
+  </si>
+  <si>
+    <t>CAP-C</t>
+  </si>
+  <si>
+    <t>Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>Cellular Thermal Shift Assay</t>
+  </si>
+  <si>
+    <t>Chemotaxis Assay</t>
+  </si>
+  <si>
+    <t>Chromatin Immunoprecipitation</t>
+  </si>
+  <si>
+    <t>Competitive ELISA</t>
+  </si>
+  <si>
+    <t>Conventional Microscopy</t>
+  </si>
+  <si>
+    <t>Differential Interference Contrast Microscopy</t>
+  </si>
+  <si>
+    <t>Differential Scanning Fluorimetry</t>
+  </si>
+  <si>
+    <t>Droplet Digital PCR</t>
+  </si>
+  <si>
+    <t>Dye Endocytosis Assay</t>
+  </si>
+  <si>
+    <t>FAIRE-Seq</t>
+  </si>
+  <si>
+    <t>Focused Ion Beam Scanning Electron Microscopy</t>
+  </si>
+  <si>
+    <t>Forster Resonance Energy Transfer</t>
+  </si>
+  <si>
+    <t>Gas Chromatography Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>HiChIP</t>
+  </si>
+  <si>
+    <t>Hierarchical Loading Microwell Chip</t>
+  </si>
+  <si>
+    <t>Luminescent Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>Magnetic Twisting Cytometry</t>
+  </si>
+  <si>
+    <t>Neutral Comet Assay</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing</t>
+  </si>
+  <si>
+    <t>Optical Emission Spectroscopy</t>
+  </si>
+  <si>
+    <t>Single Cell Cytokine Detection Chip Assay</t>
+  </si>
+  <si>
+    <t>Single Molecule Forster Resonance Energy Transfer</t>
+  </si>
+  <si>
+    <t>Single Nucleus RNA-Sequencing</t>
+  </si>
+  <si>
+    <t>Southern Blotting</t>
+  </si>
+  <si>
+    <t>Synthetic Genetic Array</t>
+  </si>
+  <si>
+    <t>T-cell Receptor Sequencing</t>
+  </si>
+  <si>
+    <t>Transposon Insertion Sequencing</t>
+  </si>
+  <si>
+    <t>UV Photocrosslinking</t>
+  </si>
+  <si>
+    <t>Vibrational Spectroscopy</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Palatine Tonsil</t>
+  </si>
+  <si>
+    <t>Pituitary Gland</t>
+  </si>
+  <si>
+    <t>Angiosarcoma</t>
+  </si>
+  <si>
+    <t>Bladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Cancer Stem Cells</t>
+  </si>
+  <si>
+    <t>Cervical Carcinoma</t>
+  </si>
+  <si>
+    <t>Colorectal Carcinoma</t>
+  </si>
+  <si>
+    <t>Ewing Sarcoma</t>
+  </si>
+  <si>
+    <t>Fibroepithelial Polyp</t>
+  </si>
+  <si>
+    <t>Gallbladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Malignant Digestive System Neoplasm</t>
+  </si>
+  <si>
+    <t>Malignant Neoplasm</t>
+  </si>
+  <si>
+    <t>Mesothelioma</t>
+  </si>
+  <si>
+    <t>Non-Functioning Pituitary Gland Adenoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Carcinoma</t>
+  </si>
+  <si>
+    <t>Pituitary Gland Adenoma</t>
+  </si>
+  <si>
+    <t>Prostate Carcinoma</t>
+  </si>
+  <si>
+    <t>Soft Tissue Sarcoma</t>
+  </si>
+  <si>
+    <t>Urothelial Carcinoma</t>
+  </si>
+  <si>
+    <t>Must use controlled-vocabulary terms</t>
   </si>
 </sst>
 </file>
@@ -1668,12 +1836,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1688,7 +1862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1702,6 +1876,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,25 +2225,25 @@
       <c r="E1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2080,45 +2255,45 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{009DD172-6A79-C741-BC0B-37D3FCCA3925}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{65498581-D402-2941-BA11-D491DC8E7647}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$163</xm:f>
+            <xm:f>standard_terms!$B$235:$B$261</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{79C9852E-8342-A140-A692-3F8534689EB4}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$194:$B$234</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{DCDE5A15-720E-844B-9284-441A30410061}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$267:$B$279</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{3EA22FF0-3EEA-AA4A-BD8C-E961D625194B}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$262:$B$266</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{B068EA18-B2A9-0740-96B2-0E9839D88E4F}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$2:$B$193</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{635AE965-C4EF-7F4A-B0BC-A0F17275AECA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{6AFE858B-80E4-9C42-9188-F2366CF608D0}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$205:$B$231</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{75E5ED83-6C49-0E49-A835-6A50BD948069}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$164:$B$204</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{257E5A8E-1682-B641-BB2B-5E269D60D1E0}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$237:$B$248</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{34A68B7B-A902-2E47-899A-156087CE391B}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$232:$B$236</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{D7EB02DC-609B-174B-B4D1-7C0F47C49F71}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$384:$B$519</xm:f>
+            <xm:f>standard_terms!$B$417:$B$566</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{F77E2D30-23E6-DD4A-B078-EF1B1334A3B9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{BA2301E7-B7B5-AB49-B6E9-6950BB57B987}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$249:$B$383</xm:f>
+            <xm:f>standard_terms!$B$280:$B$416</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
@@ -2132,7 +2307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53A8F76-86B7-3E45-842B-2C81D5958002}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2204,7 +2381,9 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -2213,7 +2392,9 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -2222,7 +2403,9 @@
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -2231,7 +2414,9 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -2240,7 +2425,9 @@
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -2249,7 +2436,9 @@
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
@@ -2258,7 +2447,9 @@
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -2277,7 +2468,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15D8B27-E64A-854A-A402-5BD6913012A0}">
-  <dimension ref="A1:C519"/>
+  <dimension ref="A1:C566"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2309,7 +2500,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2320,7 +2511,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2331,7 +2522,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2353,99 +2544,99 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>502</v>
@@ -2455,30 +2646,30 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>508</v>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>502</v>
@@ -2489,84 +2680,84 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="C19" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>508</v>
       </c>
       <c r="C21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>536</v>
       </c>
       <c r="C23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>537</v>
       </c>
       <c r="C24" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>538</v>
       </c>
       <c r="C25" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>502</v>
@@ -2577,40 +2768,40 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C27" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>539</v>
       </c>
       <c r="C29" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>502</v>
@@ -2621,128 +2812,128 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="C31" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>49</v>
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>541</v>
       </c>
       <c r="C35" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>52</v>
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>510</v>
       </c>
       <c r="C38" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>54</v>
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>542</v>
       </c>
       <c r="C40" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>55</v>
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>543</v>
       </c>
       <c r="C41" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>502</v>
@@ -2752,250 +2943,250 @@
       <c r="A43" t="s">
         <v>2</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>544</v>
+      </c>
+      <c r="C44" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>545</v>
+      </c>
+      <c r="C45" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>511</v>
+      </c>
+      <c r="C46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>546</v>
+      </c>
+      <c r="C51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="C58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>547</v>
+      </c>
+      <c r="C59" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>548</v>
+      </c>
+      <c r="C60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>549</v>
+      </c>
+      <c r="C61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C44" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="C62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="C63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C46" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C61" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C62" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>502</v>
@@ -3006,62 +3197,62 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="C66" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>77</v>
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>551</v>
       </c>
       <c r="C67" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
+      <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
         <v>502</v>
@@ -3071,19 +3262,19 @@
       <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
-        <v>513</v>
+      <c r="B72" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C72" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
         <v>502</v>
@@ -3093,30 +3284,30 @@
       <c r="A74" t="s">
         <v>2</v>
       </c>
-      <c r="B74" t="s">
-        <v>82</v>
+      <c r="B74" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+      <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>502</v>
@@ -3126,41 +3317,41 @@
       <c r="A77" t="s">
         <v>2</v>
       </c>
-      <c r="B77" t="s">
-        <v>84</v>
+      <c r="B77" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C77" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
+      <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
         <v>502</v>
@@ -3170,41 +3361,41 @@
       <c r="A81" t="s">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
-        <v>514</v>
+      <c r="B81" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="C81" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>88</v>
+        <v>528</v>
       </c>
       <c r="C82" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
         <v>502</v>
@@ -3214,8 +3405,8 @@
       <c r="A85" t="s">
         <v>2</v>
       </c>
-      <c r="B85" t="s">
-        <v>515</v>
+      <c r="B85" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C85" t="s">
         <v>502</v>
@@ -3226,183 +3417,183 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C86" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="3" t="s">
+      <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>96</v>
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>552</v>
       </c>
       <c r="C92" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>97</v>
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>513</v>
       </c>
       <c r="C93" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="3" t="s">
+      <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>100</v>
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>553</v>
       </c>
       <c r="C96" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="3" t="s">
+      <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>105</v>
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>514</v>
       </c>
       <c r="C101" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="3" t="s">
+      <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C102" t="s">
         <v>502</v>
@@ -3412,8 +3603,8 @@
       <c r="A103" t="s">
         <v>2</v>
       </c>
-      <c r="B103" t="s">
-        <v>516</v>
+      <c r="B103" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C103" t="s">
         <v>502</v>
@@ -3423,140 +3614,140 @@
       <c r="A104" t="s">
         <v>2</v>
       </c>
-      <c r="B104" t="s">
-        <v>517</v>
+      <c r="B104" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C104" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>108</v>
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>515</v>
       </c>
       <c r="C105" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C109" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C110" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C111" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="3" t="s">
+      <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="3" t="s">
+      <c r="A113" t="s">
         <v>2</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C113" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="3" t="s">
+      <c r="A114" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C115" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="3" t="s">
+      <c r="A116" t="s">
         <v>2</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
         <v>502</v>
@@ -3566,52 +3757,52 @@
       <c r="A117" t="s">
         <v>2</v>
       </c>
-      <c r="B117" t="s">
-        <v>518</v>
+      <c r="B117" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C117" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="3" t="s">
+      <c r="A118" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>121</v>
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>554</v>
       </c>
       <c r="C119" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>122</v>
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>555</v>
       </c>
       <c r="C120" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A121" s="3" t="s">
+      <c r="A121" t="s">
         <v>2</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C121" t="s">
         <v>502</v>
@@ -3621,74 +3812,74 @@
       <c r="A122" t="s">
         <v>2</v>
       </c>
-      <c r="B122" t="s">
-        <v>123</v>
+      <c r="B122" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C122" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="3" t="s">
+      <c r="A123" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A124" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>125</v>
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>516</v>
       </c>
       <c r="C124" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>126</v>
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>556</v>
       </c>
       <c r="C125" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>127</v>
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>517</v>
       </c>
       <c r="C126" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="3" t="s">
+      <c r="A127" t="s">
         <v>2</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>530</v>
+        <v>108</v>
       </c>
       <c r="C127" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="3" t="s">
+      <c r="A128" t="s">
         <v>2</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C128" t="s">
         <v>502</v>
@@ -3698,261 +3889,261 @@
       <c r="A129" t="s">
         <v>2</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C138" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>518</v>
+      </c>
+      <c r="C139" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C140" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C143" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C148" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
         <v>519</v>
       </c>
-      <c r="C129" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="C150" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="3" t="s">
+      <c r="C151" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C131" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C136" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C137" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A138" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C139" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C141" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A142" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C143" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C144" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C145" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C146" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C147" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C149" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C151" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>502</v>
@@ -3962,445 +4153,448 @@
       <c r="A153" t="s">
         <v>2</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>557</v>
+      </c>
+      <c r="C154" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>558</v>
+      </c>
+      <c r="C157" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>559</v>
+      </c>
+      <c r="C159" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C160" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C162" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C164" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>560</v>
+      </c>
+      <c r="C165" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C167" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C168" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C169" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>561</v>
+      </c>
+      <c r="C170" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>562</v>
+      </c>
+      <c r="C171" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C172" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C177" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C178" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
+        <v>563</v>
+      </c>
+      <c r="C180" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
         <v>520</v>
       </c>
-      <c r="C153" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="3" t="s">
+      <c r="C181" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C154" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="3" t="s">
+      <c r="C182" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C155" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="3" t="s">
+      <c r="C183" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>564</v>
+      </c>
+      <c r="C184" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C156" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A157" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="3" t="s">
+      <c r="C185" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>565</v>
+      </c>
+      <c r="C186" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C157" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="3" t="s">
+      <c r="C187" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C158" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" s="3" t="s">
+      <c r="C188" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C159" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B160" s="3" t="s">
+      <c r="C189" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C160" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A161" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="3" t="s">
+      <c r="C190" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C161" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A162" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B162" s="3" t="s">
+      <c r="C191" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C162" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="C192" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C163" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A164" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" t="s">
-        <v>188</v>
-      </c>
-      <c r="C165" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A166" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" t="s">
-        <v>189</v>
-      </c>
-      <c r="C166" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A167" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" t="s">
-        <v>190</v>
-      </c>
-      <c r="C167" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A168" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" t="s">
-        <v>191</v>
-      </c>
-      <c r="C168" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A169" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" t="s">
-        <v>192</v>
-      </c>
-      <c r="C169" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A170" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" t="s">
-        <v>193</v>
-      </c>
-      <c r="C170" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A171" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" t="s">
-        <v>194</v>
-      </c>
-      <c r="C171" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A172" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" t="s">
-        <v>195</v>
-      </c>
-      <c r="C172" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A173" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" t="s">
-        <v>196</v>
-      </c>
-      <c r="C173" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" t="s">
-        <v>198</v>
-      </c>
-      <c r="C174" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" t="s">
-        <v>199</v>
-      </c>
-      <c r="C175" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A176" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" t="s">
-        <v>200</v>
-      </c>
-      <c r="C176" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A177" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" t="s">
-        <v>201</v>
-      </c>
-      <c r="C177" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A178" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" t="s">
-        <v>213</v>
-      </c>
-      <c r="C178" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A179" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" t="s">
-        <v>202</v>
-      </c>
-      <c r="C179" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A180" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" t="s">
-        <v>203</v>
-      </c>
-      <c r="C180" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A181" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" t="s">
-        <v>204</v>
-      </c>
-      <c r="C181" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A182" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" t="s">
-        <v>205</v>
-      </c>
-      <c r="C182" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A183" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" t="s">
-        <v>206</v>
-      </c>
-      <c r="C183" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A184" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" t="s">
-        <v>207</v>
-      </c>
-      <c r="C184" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A185" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A186" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" t="s">
-        <v>209</v>
-      </c>
-      <c r="C186" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A187" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187" t="s">
-        <v>210</v>
-      </c>
-      <c r="C187" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A188" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" t="s">
-        <v>211</v>
-      </c>
-      <c r="C188" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A189" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189" t="s">
-        <v>212</v>
-      </c>
-      <c r="C189" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A190" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" t="s">
-        <v>214</v>
-      </c>
-      <c r="C190" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A191" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B191" t="s">
-        <v>215</v>
-      </c>
-      <c r="C191" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A192" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" t="s">
-        <v>216</v>
-      </c>
-      <c r="C192" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A193" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" t="s">
-        <v>217</v>
       </c>
       <c r="C193" t="s">
         <v>502</v>
@@ -4410,9 +4604,6 @@
       <c r="A194" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B194" t="s">
-        <v>218</v>
-      </c>
       <c r="C194" t="s">
         <v>502</v>
       </c>
@@ -4422,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C195" t="s">
         <v>502</v>
@@ -4433,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="C196" t="s">
         <v>502</v>
@@ -4444,7 +4635,7 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C197" t="s">
         <v>502</v>
@@ -4455,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C198" t="s">
         <v>502</v>
@@ -4466,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C199" t="s">
         <v>502</v>
@@ -4477,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="C200" t="s">
         <v>502</v>
@@ -4488,7 +4679,7 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="C201" t="s">
         <v>502</v>
@@ -4499,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C202" t="s">
         <v>502</v>
@@ -4510,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C203" t="s">
         <v>502</v>
@@ -4521,7 +4712,7 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C204" t="s">
         <v>502</v>
@@ -4529,7 +4720,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>199</v>
       </c>
       <c r="C205" t="s">
         <v>502</v>
@@ -4537,10 +4731,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B206" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C206" t="s">
         <v>502</v>
@@ -4548,10 +4742,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C207" t="s">
         <v>502</v>
@@ -4559,10 +4753,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="C208" t="s">
         <v>502</v>
@@ -4570,10 +4764,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C209" t="s">
         <v>502</v>
@@ -4581,10 +4775,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C210" t="s">
         <v>502</v>
@@ -4592,10 +4786,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C211" t="s">
         <v>502</v>
@@ -4603,10 +4797,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C212" t="s">
         <v>502</v>
@@ -4614,10 +4808,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C213" t="s">
         <v>502</v>
@@ -4625,10 +4819,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C214" t="s">
         <v>502</v>
@@ -4636,10 +4830,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C215" t="s">
         <v>502</v>
@@ -4647,10 +4841,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="C216" t="s">
         <v>502</v>
@@ -4658,10 +4852,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="C217" t="s">
         <v>502</v>
@@ -4669,10 +4863,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C218" t="s">
         <v>502</v>
@@ -4680,10 +4874,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="C219" t="s">
         <v>502</v>
@@ -4691,10 +4885,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C220" t="s">
         <v>502</v>
@@ -4702,10 +4896,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C221" t="s">
         <v>502</v>
@@ -4713,10 +4907,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C222" t="s">
         <v>502</v>
@@ -4724,10 +4918,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="C223" t="s">
         <v>502</v>
@@ -4735,10 +4929,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C224" t="s">
         <v>502</v>
@@ -4746,10 +4940,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="C225" t="s">
         <v>502</v>
@@ -4757,10 +4951,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="C226" t="s">
         <v>502</v>
@@ -4768,10 +4962,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="C227" t="s">
         <v>502</v>
@@ -4779,10 +4973,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="C228" t="s">
         <v>502</v>
@@ -4790,10 +4984,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="C229" t="s">
         <v>502</v>
@@ -4801,10 +4995,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C230" t="s">
         <v>502</v>
@@ -4812,10 +5006,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="C231" t="s">
         <v>502</v>
@@ -4823,7 +5017,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>197</v>
       </c>
       <c r="C232" t="s">
         <v>502</v>
@@ -4831,10 +5028,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C233" t="s">
         <v>502</v>
@@ -4842,10 +5039,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C234" t="s">
         <v>502</v>
@@ -4853,10 +5050,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="C235" t="s">
         <v>502</v>
@@ -4864,10 +5058,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C236" t="s">
         <v>502</v>
@@ -4875,19 +5069,21 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>179</v>
+      </c>
       <c r="C237" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>229</v>
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>162</v>
       </c>
       <c r="C238" t="s">
         <v>502</v>
@@ -4895,10 +5091,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>230</v>
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>177</v>
       </c>
       <c r="C239" t="s">
         <v>502</v>
@@ -4906,10 +5102,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="B240" t="s">
+        <v>181</v>
       </c>
       <c r="C240" t="s">
         <v>502</v>
@@ -4917,10 +5113,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>232</v>
+        <v>3</v>
+      </c>
+      <c r="B241" t="s">
+        <v>182</v>
       </c>
       <c r="C241" t="s">
         <v>502</v>
@@ -4928,10 +5124,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>233</v>
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>185</v>
       </c>
       <c r="C242" t="s">
         <v>502</v>
@@ -4939,10 +5135,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>234</v>
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>163</v>
       </c>
       <c r="C243" t="s">
         <v>502</v>
@@ -4950,10 +5146,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>235</v>
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>175</v>
       </c>
       <c r="C244" t="s">
         <v>502</v>
@@ -4961,10 +5157,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>228</v>
+        <v>3</v>
+      </c>
+      <c r="B245" t="s">
+        <v>164</v>
       </c>
       <c r="C245" t="s">
         <v>502</v>
@@ -4972,10 +5168,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>152</v>
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
+        <v>183</v>
       </c>
       <c r="C246" t="s">
         <v>502</v>
@@ -4983,10 +5179,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>236</v>
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
+        <v>165</v>
       </c>
       <c r="C247" t="s">
         <v>502</v>
@@ -4994,348 +5190,346 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
+        <v>166</v>
+      </c>
+      <c r="C248" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>167</v>
+      </c>
+      <c r="C249" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>168</v>
+      </c>
+      <c r="C250" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>169</v>
+      </c>
+      <c r="C251" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
+        <v>184</v>
+      </c>
+      <c r="C252" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
+        <v>170</v>
+      </c>
+      <c r="C253" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>172</v>
+      </c>
+      <c r="C254" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>176</v>
+      </c>
+      <c r="C255" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>171</v>
+      </c>
+      <c r="C256" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
+        <v>173</v>
+      </c>
+      <c r="C257" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
+        <v>186</v>
+      </c>
+      <c r="C258" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>180</v>
+      </c>
+      <c r="C259" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>174</v>
+      </c>
+      <c r="C260" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" t="s">
+        <v>178</v>
+      </c>
+      <c r="C261" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" t="s">
+        <v>238</v>
+      </c>
+      <c r="C263" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>239</v>
+      </c>
+      <c r="C264" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" t="s">
+        <v>228</v>
+      </c>
+      <c r="C265" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>152</v>
+      </c>
+      <c r="C266" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B267" s="3"/>
+      <c r="C267" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C268" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C269" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C270" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C271" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C272" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C273" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C274" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C275" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C277" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C278" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C248" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
-        <v>8</v>
-      </c>
-      <c r="C249" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
-        <v>8</v>
-      </c>
-      <c r="B250" t="s">
-        <v>361</v>
-      </c>
-      <c r="C250" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" t="s">
-        <v>362</v>
-      </c>
-      <c r="C251" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
-        <v>8</v>
-      </c>
-      <c r="B252" t="s">
-        <v>363</v>
-      </c>
-      <c r="C252" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
-        <v>8</v>
-      </c>
-      <c r="B253" t="s">
-        <v>364</v>
-      </c>
-      <c r="C253" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
-        <v>8</v>
-      </c>
-      <c r="B254" t="s">
-        <v>365</v>
-      </c>
-      <c r="C254" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
-        <v>8</v>
-      </c>
-      <c r="B255" t="s">
-        <v>366</v>
-      </c>
-      <c r="C255" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
-        <v>8</v>
-      </c>
-      <c r="B256" t="s">
-        <v>367</v>
-      </c>
-      <c r="C256" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
-        <v>8</v>
-      </c>
-      <c r="B257" t="s">
-        <v>368</v>
-      </c>
-      <c r="C257" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
-        <v>8</v>
-      </c>
-      <c r="B258" t="s">
-        <v>369</v>
-      </c>
-      <c r="C258" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
-        <v>8</v>
-      </c>
-      <c r="B259" t="s">
-        <v>370</v>
-      </c>
-      <c r="C259" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
-        <v>8</v>
-      </c>
-      <c r="B260" t="s">
-        <v>371</v>
-      </c>
-      <c r="C260" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A261" t="s">
-        <v>8</v>
-      </c>
-      <c r="B261" t="s">
-        <v>372</v>
-      </c>
-      <c r="C261" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
-        <v>8</v>
-      </c>
-      <c r="B262" t="s">
-        <v>373</v>
-      </c>
-      <c r="C262" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
-        <v>8</v>
-      </c>
-      <c r="B263" t="s">
-        <v>374</v>
-      </c>
-      <c r="C263" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
-        <v>8</v>
-      </c>
-      <c r="B264" t="s">
-        <v>375</v>
-      </c>
-      <c r="C264" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
-        <v>8</v>
-      </c>
-      <c r="B265" t="s">
-        <v>376</v>
-      </c>
-      <c r="C265" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
-        <v>8</v>
-      </c>
-      <c r="B266" t="s">
-        <v>377</v>
-      </c>
-      <c r="C266" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
-        <v>8</v>
-      </c>
-      <c r="B267" t="s">
-        <v>378</v>
-      </c>
-      <c r="C267" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
-        <v>8</v>
-      </c>
-      <c r="B268" t="s">
-        <v>379</v>
-      </c>
-      <c r="C268" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
-        <v>8</v>
-      </c>
-      <c r="B269" t="s">
-        <v>380</v>
-      </c>
-      <c r="C269" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
-        <v>8</v>
-      </c>
-      <c r="B270" t="s">
-        <v>381</v>
-      </c>
-      <c r="C270" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
-        <v>8</v>
-      </c>
-      <c r="B271" t="s">
-        <v>382</v>
-      </c>
-      <c r="C271" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
-        <v>8</v>
-      </c>
-      <c r="B272" t="s">
-        <v>383</v>
-      </c>
-      <c r="C272" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
-        <v>8</v>
-      </c>
-      <c r="B273" t="s">
-        <v>384</v>
-      </c>
-      <c r="C273" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
-        <v>8</v>
-      </c>
-      <c r="B274" t="s">
-        <v>385</v>
-      </c>
-      <c r="C274" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
-        <v>8</v>
-      </c>
-      <c r="B275" t="s">
-        <v>386</v>
-      </c>
-      <c r="C275" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
-        <v>8</v>
-      </c>
-      <c r="B276" t="s">
-        <v>387</v>
-      </c>
-      <c r="C276" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
-        <v>8</v>
-      </c>
-      <c r="B277" t="s">
-        <v>388</v>
-      </c>
-      <c r="C277" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
-        <v>8</v>
-      </c>
-      <c r="B278" t="s">
-        <v>389</v>
-      </c>
-      <c r="C278" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
-        <v>8</v>
-      </c>
-      <c r="B279" t="s">
-        <v>390</v>
       </c>
       <c r="C279" t="s">
         <v>502</v>
@@ -5345,9 +5539,6 @@
       <c r="A280" t="s">
         <v>8</v>
       </c>
-      <c r="B280" t="s">
-        <v>391</v>
-      </c>
       <c r="C280" t="s">
         <v>502</v>
       </c>
@@ -5357,7 +5548,7 @@
         <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="C281" t="s">
         <v>502</v>
@@ -5368,7 +5559,7 @@
         <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="C282" t="s">
         <v>502</v>
@@ -5379,7 +5570,7 @@
         <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C283" t="s">
         <v>502</v>
@@ -5390,7 +5581,7 @@
         <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="C284" t="s">
         <v>502</v>
@@ -5401,7 +5592,7 @@
         <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="C285" t="s">
         <v>502</v>
@@ -5412,7 +5603,7 @@
         <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="C286" t="s">
         <v>502</v>
@@ -5423,7 +5614,7 @@
         <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="C287" t="s">
         <v>502</v>
@@ -5434,7 +5625,7 @@
         <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="C288" t="s">
         <v>502</v>
@@ -5445,7 +5636,7 @@
         <v>8</v>
       </c>
       <c r="B289" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C289" t="s">
         <v>502</v>
@@ -5456,7 +5647,7 @@
         <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="C290" t="s">
         <v>502</v>
@@ -5467,7 +5658,7 @@
         <v>8</v>
       </c>
       <c r="B291" t="s">
-        <v>521</v>
+        <v>371</v>
       </c>
       <c r="C291" t="s">
         <v>502</v>
@@ -5478,7 +5669,7 @@
         <v>8</v>
       </c>
       <c r="B292" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C292" t="s">
         <v>502</v>
@@ -5489,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="B293" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C293" t="s">
         <v>502</v>
@@ -5500,7 +5691,7 @@
         <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C294" t="s">
         <v>502</v>
@@ -5511,7 +5702,7 @@
         <v>8</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="C295" t="s">
         <v>502</v>
@@ -5522,7 +5713,7 @@
         <v>8</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="C296" t="s">
         <v>502</v>
@@ -5533,7 +5724,7 @@
         <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="C297" t="s">
         <v>502</v>
@@ -5544,7 +5735,7 @@
         <v>8</v>
       </c>
       <c r="B298" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C298" t="s">
         <v>502</v>
@@ -5555,7 +5746,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="C299" t="s">
         <v>502</v>
@@ -5566,7 +5757,7 @@
         <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="C300" t="s">
         <v>502</v>
@@ -5577,7 +5768,7 @@
         <v>8</v>
       </c>
       <c r="B301" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="C301" t="s">
         <v>502</v>
@@ -5588,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="B302" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="C302" t="s">
         <v>502</v>
@@ -5599,7 +5790,7 @@
         <v>8</v>
       </c>
       <c r="B303" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="C303" t="s">
         <v>502</v>
@@ -5610,7 +5801,7 @@
         <v>8</v>
       </c>
       <c r="B304" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="C304" t="s">
         <v>502</v>
@@ -5621,7 +5812,7 @@
         <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="C305" t="s">
         <v>502</v>
@@ -5632,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="C306" t="s">
         <v>502</v>
@@ -5643,7 +5834,7 @@
         <v>8</v>
       </c>
       <c r="B307" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="C307" t="s">
         <v>502</v>
@@ -5654,7 +5845,7 @@
         <v>8</v>
       </c>
       <c r="B308" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="C308" t="s">
         <v>502</v>
@@ -5665,7 +5856,7 @@
         <v>8</v>
       </c>
       <c r="B309" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="C309" t="s">
         <v>502</v>
@@ -5676,7 +5867,7 @@
         <v>8</v>
       </c>
       <c r="B310" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="C310" t="s">
         <v>502</v>
@@ -5687,7 +5878,7 @@
         <v>8</v>
       </c>
       <c r="B311" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="C311" t="s">
         <v>502</v>
@@ -5698,7 +5889,7 @@
         <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="C312" t="s">
         <v>502</v>
@@ -5709,7 +5900,7 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="C313" t="s">
         <v>502</v>
@@ -5720,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="C314" t="s">
         <v>502</v>
@@ -5731,7 +5922,7 @@
         <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="C315" t="s">
         <v>502</v>
@@ -5742,7 +5933,7 @@
         <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="C316" t="s">
         <v>502</v>
@@ -5753,7 +5944,7 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="C317" t="s">
         <v>502</v>
@@ -5764,7 +5955,7 @@
         <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="C318" t="s">
         <v>502</v>
@@ -5775,7 +5966,7 @@
         <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C319" t="s">
         <v>502</v>
@@ -5786,7 +5977,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="C320" t="s">
         <v>502</v>
@@ -5797,7 +5988,7 @@
         <v>8</v>
       </c>
       <c r="B321" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="C321" t="s">
         <v>502</v>
@@ -5808,7 +5999,7 @@
         <v>8</v>
       </c>
       <c r="B322" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="C322" t="s">
         <v>502</v>
@@ -5819,7 +6010,7 @@
         <v>8</v>
       </c>
       <c r="B323" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="C323" t="s">
         <v>502</v>
@@ -5830,7 +6021,7 @@
         <v>8</v>
       </c>
       <c r="B324" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="C324" t="s">
         <v>502</v>
@@ -5841,7 +6032,7 @@
         <v>8</v>
       </c>
       <c r="B325" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="C325" t="s">
         <v>502</v>
@@ -5852,7 +6043,7 @@
         <v>8</v>
       </c>
       <c r="B326" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="C326" t="s">
         <v>502</v>
@@ -5863,7 +6054,7 @@
         <v>8</v>
       </c>
       <c r="B327" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="C327" t="s">
         <v>502</v>
@@ -5874,7 +6065,7 @@
         <v>8</v>
       </c>
       <c r="B328" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="C328" t="s">
         <v>502</v>
@@ -5885,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="B329" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="C329" t="s">
         <v>502</v>
@@ -5896,7 +6087,7 @@
         <v>8</v>
       </c>
       <c r="B330" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="C330" t="s">
         <v>502</v>
@@ -5907,7 +6098,7 @@
         <v>8</v>
       </c>
       <c r="B331" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="C331" t="s">
         <v>502</v>
@@ -5918,7 +6109,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="C332" t="s">
         <v>502</v>
@@ -5929,7 +6120,7 @@
         <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="C333" t="s">
         <v>502</v>
@@ -5940,7 +6131,7 @@
         <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="C334" t="s">
         <v>502</v>
@@ -5951,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="C335" t="s">
         <v>502</v>
@@ -5962,7 +6153,7 @@
         <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="C336" t="s">
         <v>502</v>
@@ -5973,7 +6164,7 @@
         <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="C337" t="s">
         <v>502</v>
@@ -5984,7 +6175,7 @@
         <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="C338" t="s">
         <v>502</v>
@@ -5995,7 +6186,7 @@
         <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="C339" t="s">
         <v>502</v>
@@ -6006,7 +6197,7 @@
         <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="C340" t="s">
         <v>502</v>
@@ -6017,7 +6208,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="C341" t="s">
         <v>502</v>
@@ -6028,7 +6219,7 @@
         <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="C342" t="s">
         <v>502</v>
@@ -6039,7 +6230,7 @@
         <v>8</v>
       </c>
       <c r="B343" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="C343" t="s">
         <v>502</v>
@@ -6050,7 +6241,7 @@
         <v>8</v>
       </c>
       <c r="B344" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="C344" t="s">
         <v>502</v>
@@ -6061,7 +6252,7 @@
         <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="C345" t="s">
         <v>502</v>
@@ -6072,7 +6263,7 @@
         <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="C346" t="s">
         <v>502</v>
@@ -6083,7 +6274,7 @@
         <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="C347" t="s">
         <v>502</v>
@@ -6094,7 +6285,7 @@
         <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="C348" t="s">
         <v>502</v>
@@ -6105,7 +6296,7 @@
         <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="C349" t="s">
         <v>502</v>
@@ -6116,7 +6307,7 @@
         <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="C350" t="s">
         <v>502</v>
@@ -6127,7 +6318,7 @@
         <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="C351" t="s">
         <v>502</v>
@@ -6138,7 +6329,7 @@
         <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="C352" t="s">
         <v>502</v>
@@ -6149,7 +6340,7 @@
         <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="C353" t="s">
         <v>502</v>
@@ -6160,7 +6351,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="C354" t="s">
         <v>502</v>
@@ -6171,7 +6362,7 @@
         <v>8</v>
       </c>
       <c r="B355" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="C355" t="s">
         <v>502</v>
@@ -6182,7 +6373,7 @@
         <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="C356" t="s">
         <v>502</v>
@@ -6193,7 +6384,7 @@
         <v>8</v>
       </c>
       <c r="B357" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C357" t="s">
         <v>502</v>
@@ -6204,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="B358" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="C358" t="s">
         <v>502</v>
@@ -6215,7 +6406,7 @@
         <v>8</v>
       </c>
       <c r="B359" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="C359" t="s">
         <v>502</v>
@@ -6226,7 +6417,7 @@
         <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="C360" t="s">
         <v>502</v>
@@ -6237,7 +6428,7 @@
         <v>8</v>
       </c>
       <c r="B361" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="C361" t="s">
         <v>502</v>
@@ -6248,7 +6439,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="C362" t="s">
         <v>502</v>
@@ -6259,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="C363" t="s">
         <v>502</v>
@@ -6270,7 +6461,7 @@
         <v>8</v>
       </c>
       <c r="B364" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="C364" t="s">
         <v>502</v>
@@ -6281,7 +6472,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="C365" t="s">
         <v>502</v>
@@ -6292,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="B366" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="C366" t="s">
         <v>502</v>
@@ -6303,7 +6494,7 @@
         <v>8</v>
       </c>
       <c r="B367" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="C367" t="s">
         <v>502</v>
@@ -6314,7 +6505,7 @@
         <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="C368" t="s">
         <v>502</v>
@@ -6325,7 +6516,7 @@
         <v>8</v>
       </c>
       <c r="B369" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="C369" t="s">
         <v>502</v>
@@ -6336,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="B370" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="C370" t="s">
         <v>502</v>
@@ -6347,7 +6538,7 @@
         <v>8</v>
       </c>
       <c r="B371" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="C371" t="s">
         <v>502</v>
@@ -6358,7 +6549,7 @@
         <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="C372" t="s">
         <v>502</v>
@@ -6369,7 +6560,7 @@
         <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="C373" t="s">
         <v>502</v>
@@ -6380,7 +6571,7 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="C374" t="s">
         <v>502</v>
@@ -6391,7 +6582,7 @@
         <v>8</v>
       </c>
       <c r="B375" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="C375" t="s">
         <v>502</v>
@@ -6402,7 +6593,7 @@
         <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>152</v>
+        <v>567</v>
       </c>
       <c r="C376" t="s">
         <v>502</v>
@@ -6413,7 +6604,7 @@
         <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="C377" t="s">
         <v>502</v>
@@ -6424,7 +6615,7 @@
         <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="C378" t="s">
         <v>502</v>
@@ -6435,7 +6626,7 @@
         <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="C379" t="s">
         <v>502</v>
@@ -6446,7 +6637,7 @@
         <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="C380" t="s">
         <v>502</v>
@@ -6457,7 +6648,7 @@
         <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="C381" t="s">
         <v>502</v>
@@ -6468,7 +6659,7 @@
         <v>8</v>
       </c>
       <c r="B382" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="C382" t="s">
         <v>502</v>
@@ -6479,27 +6670,29 @@
         <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="C383" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A384" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B384" s="3"/>
+      <c r="A384" t="s">
+        <v>8</v>
+      </c>
+      <c r="B384" t="s">
+        <v>461</v>
+      </c>
       <c r="C384" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="C385" t="s">
         <v>502</v>
@@ -6507,10 +6700,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>240</v>
+        <v>463</v>
       </c>
       <c r="C386" t="s">
         <v>502</v>
@@ -6518,10 +6711,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="C387" t="s">
         <v>502</v>
@@ -6529,10 +6722,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B388" t="s">
-        <v>242</v>
+        <v>465</v>
       </c>
       <c r="C388" t="s">
         <v>502</v>
@@ -6540,10 +6733,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>243</v>
+        <v>466</v>
       </c>
       <c r="C389" t="s">
         <v>502</v>
@@ -6551,10 +6744,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B390" t="s">
-        <v>244</v>
+        <v>467</v>
       </c>
       <c r="C390" t="s">
         <v>502</v>
@@ -6562,10 +6755,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B391" t="s">
-        <v>245</v>
+        <v>468</v>
       </c>
       <c r="C391" t="s">
         <v>502</v>
@@ -6573,10 +6766,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B392" t="s">
-        <v>246</v>
+        <v>469</v>
       </c>
       <c r="C392" t="s">
         <v>502</v>
@@ -6584,10 +6777,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B393" t="s">
-        <v>247</v>
+        <v>470</v>
       </c>
       <c r="C393" t="s">
         <v>502</v>
@@ -6595,10 +6788,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B394" t="s">
-        <v>248</v>
+        <v>471</v>
       </c>
       <c r="C394" t="s">
         <v>502</v>
@@ -6606,10 +6799,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>249</v>
+        <v>472</v>
       </c>
       <c r="C395" t="s">
         <v>502</v>
@@ -6617,10 +6810,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>250</v>
+        <v>473</v>
       </c>
       <c r="C396" t="s">
         <v>502</v>
@@ -6628,10 +6821,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>251</v>
+        <v>474</v>
       </c>
       <c r="C397" t="s">
         <v>502</v>
@@ -6639,10 +6832,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B398" t="s">
-        <v>252</v>
+        <v>475</v>
       </c>
       <c r="C398" t="s">
         <v>502</v>
@@ -6650,10 +6843,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B399" t="s">
-        <v>253</v>
+        <v>476</v>
       </c>
       <c r="C399" t="s">
         <v>502</v>
@@ -6661,10 +6854,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B400" t="s">
-        <v>254</v>
+        <v>477</v>
       </c>
       <c r="C400" t="s">
         <v>502</v>
@@ -6672,10 +6865,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>255</v>
+        <v>478</v>
       </c>
       <c r="C401" t="s">
         <v>502</v>
@@ -6683,10 +6876,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B402" t="s">
-        <v>256</v>
+        <v>479</v>
       </c>
       <c r="C402" t="s">
         <v>502</v>
@@ -6694,10 +6887,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B403" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C403" t="s">
         <v>502</v>
@@ -6705,10 +6898,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B404" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C404" t="s">
         <v>502</v>
@@ -6716,10 +6909,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B405" t="s">
-        <v>257</v>
+        <v>482</v>
       </c>
       <c r="C405" t="s">
         <v>502</v>
@@ -6727,10 +6920,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B406" t="s">
-        <v>258</v>
+        <v>483</v>
       </c>
       <c r="C406" t="s">
         <v>502</v>
@@ -6738,10 +6931,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B407" t="s">
-        <v>259</v>
+        <v>484</v>
       </c>
       <c r="C407" t="s">
         <v>502</v>
@@ -6749,10 +6942,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B408" t="s">
-        <v>260</v>
+        <v>485</v>
       </c>
       <c r="C408" t="s">
         <v>502</v>
@@ -6760,10 +6953,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B409" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="C409" t="s">
         <v>502</v>
@@ -6771,10 +6964,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B410" t="s">
-        <v>262</v>
+        <v>486</v>
       </c>
       <c r="C410" t="s">
         <v>502</v>
@@ -6782,10 +6975,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B411" t="s">
-        <v>263</v>
+        <v>487</v>
       </c>
       <c r="C411" t="s">
         <v>502</v>
@@ -6793,10 +6986,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B412" t="s">
-        <v>264</v>
+        <v>488</v>
       </c>
       <c r="C412" t="s">
         <v>502</v>
@@ -6804,10 +6997,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B413" t="s">
-        <v>265</v>
+        <v>489</v>
       </c>
       <c r="C413" t="s">
         <v>502</v>
@@ -6815,10 +7008,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B414" t="s">
-        <v>266</v>
+        <v>490</v>
       </c>
       <c r="C414" t="s">
         <v>502</v>
@@ -6826,10 +7019,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B415" t="s">
-        <v>267</v>
+        <v>491</v>
       </c>
       <c r="C415" t="s">
         <v>502</v>
@@ -6837,22 +7030,20 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B416" t="s">
-        <v>268</v>
+        <v>492</v>
       </c>
       <c r="C416" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A417" t="s">
-        <v>7</v>
-      </c>
-      <c r="B417" t="s">
-        <v>269</v>
-      </c>
+      <c r="A417" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" s="3"/>
       <c r="C417" t="s">
         <v>502</v>
       </c>
@@ -6862,7 +7053,7 @@
         <v>7</v>
       </c>
       <c r="B418" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="C418" t="s">
         <v>502</v>
@@ -6873,7 +7064,7 @@
         <v>7</v>
       </c>
       <c r="B419" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C419" t="s">
         <v>502</v>
@@ -6884,7 +7075,7 @@
         <v>7</v>
       </c>
       <c r="B420" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="C420" t="s">
         <v>502</v>
@@ -6895,7 +7086,7 @@
         <v>7</v>
       </c>
       <c r="B421" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C421" t="s">
         <v>502</v>
@@ -6906,7 +7097,7 @@
         <v>7</v>
       </c>
       <c r="B422" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="C422" t="s">
         <v>502</v>
@@ -6917,7 +7108,7 @@
         <v>7</v>
       </c>
       <c r="B423" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C423" t="s">
         <v>502</v>
@@ -6928,7 +7119,7 @@
         <v>7</v>
       </c>
       <c r="B424" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="C424" t="s">
         <v>502</v>
@@ -6939,7 +7130,7 @@
         <v>7</v>
       </c>
       <c r="B425" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C425" t="s">
         <v>502</v>
@@ -6950,7 +7141,7 @@
         <v>7</v>
       </c>
       <c r="B426" t="s">
-        <v>278</v>
+        <v>569</v>
       </c>
       <c r="C426" t="s">
         <v>502</v>
@@ -6961,7 +7152,7 @@
         <v>7</v>
       </c>
       <c r="B427" t="s">
-        <v>524</v>
+        <v>247</v>
       </c>
       <c r="C427" t="s">
         <v>502</v>
@@ -6972,7 +7163,7 @@
         <v>7</v>
       </c>
       <c r="B428" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C428" t="s">
         <v>502</v>
@@ -6983,7 +7174,7 @@
         <v>7</v>
       </c>
       <c r="B429" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="C429" t="s">
         <v>502</v>
@@ -6994,7 +7185,7 @@
         <v>7</v>
       </c>
       <c r="B430" t="s">
-        <v>503</v>
+        <v>250</v>
       </c>
       <c r="C430" t="s">
         <v>502</v>
@@ -7005,7 +7196,7 @@
         <v>7</v>
       </c>
       <c r="B431" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C431" t="s">
         <v>502</v>
@@ -7016,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="B432" t="s">
-        <v>282</v>
+        <v>570</v>
       </c>
       <c r="C432" t="s">
         <v>502</v>
@@ -7027,7 +7218,7 @@
         <v>7</v>
       </c>
       <c r="B433" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C433" t="s">
         <v>502</v>
@@ -7038,7 +7229,7 @@
         <v>7</v>
       </c>
       <c r="B434" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="C434" t="s">
         <v>502</v>
@@ -7049,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="B435" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="C435" t="s">
         <v>502</v>
@@ -7060,7 +7251,7 @@
         <v>7</v>
       </c>
       <c r="B436" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C436" t="s">
         <v>502</v>
@@ -7071,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="B437" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="C437" t="s">
         <v>502</v>
@@ -7082,7 +7273,7 @@
         <v>7</v>
       </c>
       <c r="B438" t="s">
-        <v>287</v>
+        <v>505</v>
       </c>
       <c r="C438" t="s">
         <v>502</v>
@@ -7093,7 +7284,7 @@
         <v>7</v>
       </c>
       <c r="B439" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="C439" t="s">
         <v>502</v>
@@ -7104,7 +7295,7 @@
         <v>7</v>
       </c>
       <c r="B440" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C440" t="s">
         <v>502</v>
@@ -7115,7 +7306,7 @@
         <v>7</v>
       </c>
       <c r="B441" t="s">
-        <v>290</v>
+        <v>571</v>
       </c>
       <c r="C441" t="s">
         <v>502</v>
@@ -7126,7 +7317,7 @@
         <v>7</v>
       </c>
       <c r="B442" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C442" t="s">
         <v>502</v>
@@ -7137,7 +7328,7 @@
         <v>7</v>
       </c>
       <c r="B443" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="C443" t="s">
         <v>502</v>
@@ -7148,7 +7339,7 @@
         <v>7</v>
       </c>
       <c r="B444" t="s">
-        <v>506</v>
+        <v>261</v>
       </c>
       <c r="C444" t="s">
         <v>502</v>
@@ -7159,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="B445" t="s">
-        <v>506</v>
+        <v>262</v>
       </c>
       <c r="C445" t="s">
         <v>502</v>
@@ -7170,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="B446" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="C446" t="s">
         <v>502</v>
@@ -7181,7 +7372,7 @@
         <v>7</v>
       </c>
       <c r="B447" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="C447" t="s">
         <v>502</v>
@@ -7192,7 +7383,7 @@
         <v>7</v>
       </c>
       <c r="B448" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C448" t="s">
         <v>502</v>
@@ -7203,7 +7394,7 @@
         <v>7</v>
       </c>
       <c r="B449" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="C449" t="s">
         <v>502</v>
@@ -7214,7 +7405,7 @@
         <v>7</v>
       </c>
       <c r="B450" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C450" t="s">
         <v>502</v>
@@ -7225,7 +7416,7 @@
         <v>7</v>
       </c>
       <c r="B451" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C451" t="s">
         <v>502</v>
@@ -7236,7 +7427,7 @@
         <v>7</v>
       </c>
       <c r="B452" t="s">
-        <v>504</v>
+        <v>269</v>
       </c>
       <c r="C452" t="s">
         <v>502</v>
@@ -7247,7 +7438,7 @@
         <v>7</v>
       </c>
       <c r="B453" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C453" t="s">
         <v>502</v>
@@ -7258,7 +7449,7 @@
         <v>7</v>
       </c>
       <c r="B454" t="s">
-        <v>300</v>
+        <v>572</v>
       </c>
       <c r="C454" t="s">
         <v>502</v>
@@ -7269,7 +7460,7 @@
         <v>7</v>
       </c>
       <c r="B455" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C455" t="s">
         <v>502</v>
@@ -7280,7 +7471,7 @@
         <v>7</v>
       </c>
       <c r="B456" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C456" t="s">
         <v>502</v>
@@ -7291,7 +7482,7 @@
         <v>7</v>
       </c>
       <c r="B457" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="C457" t="s">
         <v>502</v>
@@ -7302,7 +7493,7 @@
         <v>7</v>
       </c>
       <c r="B458" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C458" t="s">
         <v>502</v>
@@ -7313,7 +7504,7 @@
         <v>7</v>
       </c>
       <c r="B459" t="s">
-        <v>522</v>
+        <v>275</v>
       </c>
       <c r="C459" t="s">
         <v>502</v>
@@ -7324,7 +7515,7 @@
         <v>7</v>
       </c>
       <c r="B460" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C460" t="s">
         <v>502</v>
@@ -7335,7 +7526,7 @@
         <v>7</v>
       </c>
       <c r="B461" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C461" t="s">
         <v>502</v>
@@ -7346,7 +7537,7 @@
         <v>7</v>
       </c>
       <c r="B462" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C462" t="s">
         <v>502</v>
@@ -7357,7 +7548,7 @@
         <v>7</v>
       </c>
       <c r="B463" t="s">
-        <v>308</v>
+        <v>524</v>
       </c>
       <c r="C463" t="s">
         <v>502</v>
@@ -7368,7 +7559,7 @@
         <v>7</v>
       </c>
       <c r="B464" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="C464" t="s">
         <v>502</v>
@@ -7379,7 +7570,7 @@
         <v>7</v>
       </c>
       <c r="B465" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C465" t="s">
         <v>502</v>
@@ -7390,7 +7581,7 @@
         <v>7</v>
       </c>
       <c r="B466" t="s">
-        <v>311</v>
+        <v>503</v>
       </c>
       <c r="C466" t="s">
         <v>502</v>
@@ -7401,7 +7592,7 @@
         <v>7</v>
       </c>
       <c r="B467" t="s">
-        <v>312</v>
+        <v>573</v>
       </c>
       <c r="C467" t="s">
         <v>502</v>
@@ -7412,7 +7603,7 @@
         <v>7</v>
       </c>
       <c r="B468" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C468" t="s">
         <v>502</v>
@@ -7423,7 +7614,7 @@
         <v>7</v>
       </c>
       <c r="B469" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C469" t="s">
         <v>502</v>
@@ -7434,7 +7625,7 @@
         <v>7</v>
       </c>
       <c r="B470" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C470" t="s">
         <v>502</v>
@@ -7445,7 +7636,7 @@
         <v>7</v>
       </c>
       <c r="B471" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C471" t="s">
         <v>502</v>
@@ -7456,7 +7647,7 @@
         <v>7</v>
       </c>
       <c r="B472" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C472" t="s">
         <v>502</v>
@@ -7467,7 +7658,7 @@
         <v>7</v>
       </c>
       <c r="B473" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="C473" t="s">
         <v>502</v>
@@ -7478,7 +7669,7 @@
         <v>7</v>
       </c>
       <c r="B474" t="s">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="C474" t="s">
         <v>502</v>
@@ -7489,7 +7680,7 @@
         <v>7</v>
       </c>
       <c r="B475" t="s">
-        <v>320</v>
+        <v>574</v>
       </c>
       <c r="C475" t="s">
         <v>502</v>
@@ -7500,7 +7691,7 @@
         <v>7</v>
       </c>
       <c r="B476" t="s">
-        <v>321</v>
+        <v>575</v>
       </c>
       <c r="C476" t="s">
         <v>502</v>
@@ -7511,7 +7702,7 @@
         <v>7</v>
       </c>
       <c r="B477" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="C477" t="s">
         <v>502</v>
@@ -7522,7 +7713,7 @@
         <v>7</v>
       </c>
       <c r="B478" t="s">
-        <v>323</v>
+        <v>576</v>
       </c>
       <c r="C478" t="s">
         <v>502</v>
@@ -7533,7 +7724,7 @@
         <v>7</v>
       </c>
       <c r="B479" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C479" t="s">
         <v>502</v>
@@ -7544,7 +7735,7 @@
         <v>7</v>
       </c>
       <c r="B480" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C480" t="s">
         <v>502</v>
@@ -7555,7 +7746,7 @@
         <v>7</v>
       </c>
       <c r="B481" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C481" t="s">
         <v>502</v>
@@ -7566,7 +7757,7 @@
         <v>7</v>
       </c>
       <c r="B482" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C482" t="s">
         <v>502</v>
@@ -7577,7 +7768,7 @@
         <v>7</v>
       </c>
       <c r="B483" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C483" t="s">
         <v>502</v>
@@ -7588,7 +7779,7 @@
         <v>7</v>
       </c>
       <c r="B484" t="s">
-        <v>329</v>
+        <v>506</v>
       </c>
       <c r="C484" t="s">
         <v>502</v>
@@ -7599,7 +7790,7 @@
         <v>7</v>
       </c>
       <c r="B485" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C485" t="s">
         <v>502</v>
@@ -7610,7 +7801,7 @@
         <v>7</v>
       </c>
       <c r="B486" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="C486" t="s">
         <v>502</v>
@@ -7621,7 +7812,7 @@
         <v>7</v>
       </c>
       <c r="B487" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="C487" t="s">
         <v>502</v>
@@ -7632,7 +7823,7 @@
         <v>7</v>
       </c>
       <c r="B488" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C488" t="s">
         <v>502</v>
@@ -7643,7 +7834,7 @@
         <v>7</v>
       </c>
       <c r="B489" t="s">
-        <v>526</v>
+        <v>297</v>
       </c>
       <c r="C489" t="s">
         <v>502</v>
@@ -7654,7 +7845,7 @@
         <v>7</v>
       </c>
       <c r="B490" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="C490" t="s">
         <v>502</v>
@@ -7665,7 +7856,7 @@
         <v>7</v>
       </c>
       <c r="B491" t="s">
-        <v>335</v>
+        <v>504</v>
       </c>
       <c r="C491" t="s">
         <v>502</v>
@@ -7676,7 +7867,7 @@
         <v>7</v>
       </c>
       <c r="B492" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="C492" t="s">
         <v>502</v>
@@ -7687,7 +7878,7 @@
         <v>7</v>
       </c>
       <c r="B493" t="s">
-        <v>527</v>
+        <v>300</v>
       </c>
       <c r="C493" t="s">
         <v>502</v>
@@ -7698,7 +7889,7 @@
         <v>7</v>
       </c>
       <c r="B494" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C494" t="s">
         <v>502</v>
@@ -7709,7 +7900,7 @@
         <v>7</v>
       </c>
       <c r="B495" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C495" t="s">
         <v>502</v>
@@ -7720,7 +7911,7 @@
         <v>7</v>
       </c>
       <c r="B496" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="C496" t="s">
         <v>502</v>
@@ -7731,7 +7922,7 @@
         <v>7</v>
       </c>
       <c r="B497" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="C497" t="s">
         <v>502</v>
@@ -7742,7 +7933,7 @@
         <v>7</v>
       </c>
       <c r="B498" t="s">
-        <v>341</v>
+        <v>522</v>
       </c>
       <c r="C498" t="s">
         <v>502</v>
@@ -7753,7 +7944,7 @@
         <v>7</v>
       </c>
       <c r="B499" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="C499" t="s">
         <v>502</v>
@@ -7764,7 +7955,7 @@
         <v>7</v>
       </c>
       <c r="B500" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="C500" t="s">
         <v>502</v>
@@ -7775,7 +7966,7 @@
         <v>7</v>
       </c>
       <c r="B501" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="C501" t="s">
         <v>502</v>
@@ -7786,7 +7977,7 @@
         <v>7</v>
       </c>
       <c r="B502" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="C502" t="s">
         <v>502</v>
@@ -7797,7 +7988,7 @@
         <v>7</v>
       </c>
       <c r="B503" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C503" t="s">
         <v>502</v>
@@ -7808,7 +7999,7 @@
         <v>7</v>
       </c>
       <c r="B504" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="C504" t="s">
         <v>502</v>
@@ -7819,7 +8010,7 @@
         <v>7</v>
       </c>
       <c r="B505" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="C505" t="s">
         <v>502</v>
@@ -7830,7 +8021,7 @@
         <v>7</v>
       </c>
       <c r="B506" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="C506" t="s">
         <v>502</v>
@@ -7841,7 +8032,7 @@
         <v>7</v>
       </c>
       <c r="B507" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C507" t="s">
         <v>502</v>
@@ -7852,7 +8043,7 @@
         <v>7</v>
       </c>
       <c r="B508" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="C508" t="s">
         <v>502</v>
@@ -7863,7 +8054,7 @@
         <v>7</v>
       </c>
       <c r="B509" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C509" t="s">
         <v>502</v>
@@ -7874,7 +8065,7 @@
         <v>7</v>
       </c>
       <c r="B510" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="C510" t="s">
         <v>502</v>
@@ -7885,7 +8076,7 @@
         <v>7</v>
       </c>
       <c r="B511" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="C511" t="s">
         <v>502</v>
@@ -7896,7 +8087,7 @@
         <v>7</v>
       </c>
       <c r="B512" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C512" t="s">
         <v>502</v>
@@ -7907,7 +8098,7 @@
         <v>7</v>
       </c>
       <c r="B513" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="C513" t="s">
         <v>502</v>
@@ -7918,7 +8109,7 @@
         <v>7</v>
       </c>
       <c r="B514" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="C514" t="s">
         <v>502</v>
@@ -7929,7 +8120,7 @@
         <v>7</v>
       </c>
       <c r="B515" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="C515" t="s">
         <v>502</v>
@@ -7940,7 +8131,7 @@
         <v>7</v>
       </c>
       <c r="B516" t="s">
-        <v>357</v>
+        <v>579</v>
       </c>
       <c r="C516" t="s">
         <v>502</v>
@@ -7951,7 +8142,7 @@
         <v>7</v>
       </c>
       <c r="B517" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C517" t="s">
         <v>502</v>
@@ -7962,7 +8153,7 @@
         <v>7</v>
       </c>
       <c r="B518" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="C518" t="s">
         <v>502</v>
@@ -7973,18 +8164,535 @@
         <v>7</v>
       </c>
       <c r="B519" t="s">
+        <v>322</v>
+      </c>
+      <c r="C519" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A520" t="s">
+        <v>7</v>
+      </c>
+      <c r="B520" t="s">
+        <v>323</v>
+      </c>
+      <c r="C520" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A521" t="s">
+        <v>7</v>
+      </c>
+      <c r="B521" t="s">
+        <v>324</v>
+      </c>
+      <c r="C521" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A522" t="s">
+        <v>7</v>
+      </c>
+      <c r="B522" t="s">
+        <v>325</v>
+      </c>
+      <c r="C522" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A523" t="s">
+        <v>7</v>
+      </c>
+      <c r="B523" t="s">
+        <v>326</v>
+      </c>
+      <c r="C523" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A524" t="s">
+        <v>7</v>
+      </c>
+      <c r="B524" t="s">
+        <v>327</v>
+      </c>
+      <c r="C524" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A525" t="s">
+        <v>7</v>
+      </c>
+      <c r="B525" t="s">
+        <v>328</v>
+      </c>
+      <c r="C525" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A526" t="s">
+        <v>7</v>
+      </c>
+      <c r="B526" t="s">
+        <v>580</v>
+      </c>
+      <c r="C526" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A527" t="s">
+        <v>7</v>
+      </c>
+      <c r="B527" t="s">
+        <v>329</v>
+      </c>
+      <c r="C527" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A528" t="s">
+        <v>7</v>
+      </c>
+      <c r="B528" t="s">
+        <v>330</v>
+      </c>
+      <c r="C528" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A529" t="s">
+        <v>7</v>
+      </c>
+      <c r="B529" t="s">
+        <v>331</v>
+      </c>
+      <c r="C529" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A530" t="s">
+        <v>7</v>
+      </c>
+      <c r="B530" t="s">
+        <v>332</v>
+      </c>
+      <c r="C530" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A531" t="s">
+        <v>7</v>
+      </c>
+      <c r="B531" t="s">
+        <v>333</v>
+      </c>
+      <c r="C531" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A532" t="s">
+        <v>7</v>
+      </c>
+      <c r="B532" t="s">
+        <v>526</v>
+      </c>
+      <c r="C532" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B533" t="s">
+        <v>334</v>
+      </c>
+      <c r="C533" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A534" t="s">
+        <v>7</v>
+      </c>
+      <c r="B534" t="s">
+        <v>335</v>
+      </c>
+      <c r="C534" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A535" t="s">
+        <v>7</v>
+      </c>
+      <c r="B535" t="s">
+        <v>336</v>
+      </c>
+      <c r="C535" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A536" t="s">
+        <v>7</v>
+      </c>
+      <c r="B536" t="s">
+        <v>581</v>
+      </c>
+      <c r="C536" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A537" t="s">
+        <v>7</v>
+      </c>
+      <c r="B537" t="s">
+        <v>527</v>
+      </c>
+      <c r="C537" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A538" t="s">
+        <v>7</v>
+      </c>
+      <c r="B538" t="s">
+        <v>337</v>
+      </c>
+      <c r="C538" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A539" t="s">
+        <v>7</v>
+      </c>
+      <c r="B539" t="s">
+        <v>338</v>
+      </c>
+      <c r="C539" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A540" t="s">
+        <v>7</v>
+      </c>
+      <c r="B540" t="s">
+        <v>339</v>
+      </c>
+      <c r="C540" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A541" t="s">
+        <v>7</v>
+      </c>
+      <c r="B541" t="s">
+        <v>582</v>
+      </c>
+      <c r="C541" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A542" t="s">
+        <v>7</v>
+      </c>
+      <c r="B542" t="s">
+        <v>340</v>
+      </c>
+      <c r="C542" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A543" t="s">
+        <v>7</v>
+      </c>
+      <c r="B543" t="s">
+        <v>341</v>
+      </c>
+      <c r="C543" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A544" t="s">
+        <v>7</v>
+      </c>
+      <c r="B544" t="s">
+        <v>583</v>
+      </c>
+      <c r="C544" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A545" t="s">
+        <v>7</v>
+      </c>
+      <c r="B545" t="s">
+        <v>342</v>
+      </c>
+      <c r="C545" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A546" t="s">
+        <v>7</v>
+      </c>
+      <c r="B546" t="s">
+        <v>343</v>
+      </c>
+      <c r="C546" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A547" t="s">
+        <v>7</v>
+      </c>
+      <c r="B547" t="s">
+        <v>344</v>
+      </c>
+      <c r="C547" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A548" t="s">
+        <v>7</v>
+      </c>
+      <c r="B548" t="s">
+        <v>345</v>
+      </c>
+      <c r="C548" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A549" t="s">
+        <v>7</v>
+      </c>
+      <c r="B549" t="s">
+        <v>346</v>
+      </c>
+      <c r="C549" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A550" t="s">
+        <v>7</v>
+      </c>
+      <c r="B550" t="s">
+        <v>347</v>
+      </c>
+      <c r="C550" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B551" t="s">
+        <v>523</v>
+      </c>
+      <c r="C551" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A552" t="s">
+        <v>7</v>
+      </c>
+      <c r="B552" t="s">
+        <v>348</v>
+      </c>
+      <c r="C552" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A553" t="s">
+        <v>7</v>
+      </c>
+      <c r="B553" t="s">
+        <v>584</v>
+      </c>
+      <c r="C553" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A554" t="s">
+        <v>7</v>
+      </c>
+      <c r="B554" t="s">
+        <v>349</v>
+      </c>
+      <c r="C554" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A555" t="s">
+        <v>7</v>
+      </c>
+      <c r="B555" t="s">
+        <v>350</v>
+      </c>
+      <c r="C555" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A556" t="s">
+        <v>7</v>
+      </c>
+      <c r="B556" t="s">
+        <v>351</v>
+      </c>
+      <c r="C556" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A557" t="s">
+        <v>7</v>
+      </c>
+      <c r="B557" t="s">
+        <v>352</v>
+      </c>
+      <c r="C557" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A558" t="s">
+        <v>7</v>
+      </c>
+      <c r="B558" t="s">
+        <v>353</v>
+      </c>
+      <c r="C558" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A559" t="s">
+        <v>7</v>
+      </c>
+      <c r="B559" t="s">
+        <v>354</v>
+      </c>
+      <c r="C559" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A560" t="s">
+        <v>7</v>
+      </c>
+      <c r="B560" t="s">
+        <v>355</v>
+      </c>
+      <c r="C560" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A561" t="s">
+        <v>7</v>
+      </c>
+      <c r="B561" t="s">
+        <v>356</v>
+      </c>
+      <c r="C561" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A562" t="s">
+        <v>7</v>
+      </c>
+      <c r="B562" t="s">
+        <v>357</v>
+      </c>
+      <c r="C562" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A563" t="s">
+        <v>7</v>
+      </c>
+      <c r="B563" t="s">
+        <v>585</v>
+      </c>
+      <c r="C563" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A564" t="s">
+        <v>7</v>
+      </c>
+      <c r="B564" t="s">
+        <v>358</v>
+      </c>
+      <c r="C564" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A565" t="s">
+        <v>7</v>
+      </c>
+      <c r="B565" t="s">
+        <v>359</v>
+      </c>
+      <c r="C565" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A566" t="s">
+        <v>7</v>
+      </c>
+      <c r="B566" t="s">
         <v>360</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C566" t="s">
         <v>502</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:B491" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C519">
-    <sortCondition ref="A4:A519"/>
-    <sortCondition ref="B4:B519"/>
+  <autoFilter ref="A1:B522" xr:uid="{0F529F69-7DFF-3849-ADCB-478514F1EB95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C550">
+    <sortCondition ref="A4:A550"/>
+    <sortCondition ref="B4:B550"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
